--- a/中文/All Correct Test.xlsx
+++ b/中文/All Correct Test.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfitz\Documents\GitHub Clones\machine-translation-scraping\中文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C349CCF-A9B3-4526-AEE9-18B2F9D50DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922179CA-2F41-4B68-B20D-25709CCF6977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>中文</t>
   </si>
@@ -215,13 +215,145 @@
   </si>
   <si>
     <t>Practice</t>
+  </si>
+  <si>
+    <t>And you are? Oh. My. God… I know you! You’re a legendary DJ! The god-like Uncle Kuhl!</t>
+  </si>
+  <si>
+    <t>Haha, thanks for remembering me, kiddos!</t>
+  </si>
+  <si>
+    <t>Me? Cool? A mister? Well, I admit that I'm cool, but calling me mister is absurd…</t>
+  </si>
+  <si>
+    <t>[{@0:Prop Releaser Name}] viciously stomped on [{@1:Released Name}] and seemed to be very proud of it.</t>
+  </si>
+  <si>
+    <t>[{@0:道具释放者名}] viciously stomped on [{@1:被释放者名}] and seemed to be very proud of it.</t>
+  </si>
+  <si>
+    <t>Every year, on the seventh day of the seventh month of the lunar calendar, it is said that magpies form a bridge over which the Weaving-girl crosses to meet the Herd-boy. Girls all over sit in the moonlight, look up at the stars searching for the constellations of the Herd-by and the Weaving-girl on either side of the Milky Way, hoping to see their once-a-year meeting, praying to the heavens to let themselves be as handy as the Weaving-girl.</t>
+  </si>
+  <si>
+    <t>每年农历七月初七</t>
+  </si>
+  <si>
+    <t>The seventh day of the seventh month of the lunar calendar</t>
+  </si>
+  <si>
+    <t>Every year on the seventh day of the seventh lunar month</t>
+  </si>
+  <si>
+    <t>相传牛郎织女鹊桥相会的日子</t>
+  </si>
+  <si>
+    <t>Legend has it that on the day of the meeting between the Cowherd and the Weaving Maiden on the Magpie Bridge</t>
+  </si>
+  <si>
+    <t>According to legend, the day when the Cowherd and the Weaver Girl met on the Magpie Bridge</t>
+  </si>
+  <si>
+    <t>Legend has it that the Cowherd and Weaver Girl meet on the Magpie Bridge</t>
+  </si>
+  <si>
+    <t>姑娘们就会来到花前月下</t>
+  </si>
+  <si>
+    <t>The girls would come to the moonlight in front of the flowers</t>
+  </si>
+  <si>
+    <t>The girls will come to Huaqian Yuexia</t>
+  </si>
+  <si>
+    <t>The girls will come before the flowers</t>
+  </si>
+  <si>
+    <t>抬头仰望星空</t>
+  </si>
+  <si>
+    <t>Look up at the starry sky</t>
+  </si>
+  <si>
+    <t>Look up at the stars</t>
+  </si>
+  <si>
+    <t>寻找银河两边的牛郎星和织女星</t>
+  </si>
+  <si>
+    <t>Looking for the stars of Niulang and Vega on both sides of the Milky Way</t>
+  </si>
+  <si>
+    <t>Look for Altair and Vega on both sides of the Milky Way</t>
+  </si>
+  <si>
+    <t>Looking for Altair and Vega on both sides of the Milky Way</t>
+  </si>
+  <si>
+    <t>希望能看到他们一年一度的相会</t>
+  </si>
+  <si>
+    <t>hoping to see their annual rendezvous</t>
+  </si>
+  <si>
+    <t>Hope to see them meet once a year</t>
+  </si>
+  <si>
+    <t>I hope to see them meet once a year</t>
+  </si>
+  <si>
+    <t>乞求上天能让自己能象织女那样心灵手巧</t>
+  </si>
+  <si>
+    <t>Begging the heavens to let them be as skillful as the weaving maiden</t>
+  </si>
+  <si>
+    <t>I beg God to be able to be as smart as the Weaver Girl</t>
+  </si>
+  <si>
+    <t>Begging God to make himself as ingenious as Weaver Girl</t>
+  </si>
+  <si>
+    <t>祈祷自己能有如意称心的美满婚姻</t>
+  </si>
+  <si>
+    <t>Praying that they will have a happy marriage as they wish</t>
+  </si>
+  <si>
+    <t>Pray for a happy and satisfying marriage</t>
+  </si>
+  <si>
+    <t>Pray that you can have a happy marriage</t>
+  </si>
+  <si>
+    <t>由此形成了七夕节。</t>
+  </si>
+  <si>
+    <t>This led to the Tanabata Festival.</t>
+  </si>
+  <si>
+    <t>Thus formed the Qixi Festival.</t>
+  </si>
+  <si>
+    <t>Thus formed the Chinese Valentine's Day.</t>
+  </si>
+  <si>
+    <t>年轻人，你有什么事情吗？</t>
+  </si>
+  <si>
+    <t>Young man, do you have something to do?</t>
+  </si>
+  <si>
+    <t>Young man, what do you want?</t>
+  </si>
+  <si>
+    <t>Young man, what can I do for you?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +365,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,6 +430,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,16 +784,16 @@
     <col min="1" max="1" width="67.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="52" customWidth="1"/>
-    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="63.140625" customWidth="1"/>
-    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="47.28515625" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="52" customWidth="1"/>
+    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="63.140625" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,380 +806,549 @@
       <c r="D1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="300" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="330" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="285" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="285" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="360" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" ht="300" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>